--- a/Assassin/Notes.xlsx
+++ b/Assassin/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="13395" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="13395" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Enemies</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Parallaxing&amp;Tiling</t>
   </si>
   <si>
-    <t>Semi</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>Samsung Galaxy Note 4 (4.4.4)</t>
+  </si>
+  <si>
+    <t>PianoTileMode</t>
+  </si>
+  <si>
+    <t>Near</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -512,6 +515,9 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -528,6 +534,9 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -570,10 +579,24 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,15 +713,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
